--- a/src/scut_ssvep_aperiod/ssvep_aperiod/output.xlsx
+++ b/src/scut_ssvep_aperiod/ssvep_aperiod/output.xlsx
@@ -436,51 +436,51 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>trca_original</t>
+          <t>fbcca_original</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>trca_ap</t>
+          <t>fbcca_pe</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>trca_pe</t>
+          <t>fbcca_ap</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.55</v>
+        <v>0.96</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="B4" t="n">
-        <v>0.65</v>
+        <v>0.86</v>
       </c>
       <c r="C4" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="5">
@@ -488,32 +488,32 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.55</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.68</v>
+        <v>0.6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.46</v>
+        <v>0.53</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.72</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="8">
@@ -521,43 +521,43 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.77</v>
+        <v>0.92</v>
       </c>
       <c r="B9" t="n">
-        <v>0.58</v>
+        <v>0.64</v>
       </c>
       <c r="C9" t="n">
-        <v>0.43</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.79</v>
+        <v>0.96</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.86</v>
+        <v>0.99</v>
       </c>
       <c r="B11" t="n">
-        <v>0.62</v>
+        <v>0.87</v>
       </c>
       <c r="C11" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="12">
@@ -565,43 +565,43 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.64</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.85</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.62</v>
+        <v>0.92</v>
       </c>
       <c r="B14" t="n">
-        <v>0.55</v>
+        <v>0.68</v>
       </c>
       <c r="C14" t="n">
-        <v>0.58</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6</v>
+        <v>0.79</v>
       </c>
       <c r="C15" t="n">
-        <v>0.28</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="16">
@@ -609,175 +609,175 @@
         <v>0.97</v>
       </c>
       <c r="B16" t="n">
-        <v>0.58</v>
+        <v>0.93</v>
       </c>
       <c r="C16" t="n">
-        <v>0.85</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>0.79</v>
+        <v>0.92</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="C18" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="B19" t="n">
         <v>0.98</v>
       </c>
-      <c r="B19" t="n">
-        <v>0.83</v>
-      </c>
       <c r="C19" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="B20" t="n">
-        <v>0.54</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>0.58</v>
+        <v>0.89</v>
       </c>
       <c r="C21" t="n">
-        <v>0.65</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.74</v>
+        <v>0.9</v>
       </c>
       <c r="B23" t="n">
-        <v>0.58</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C24" t="n">
         <v>0.27</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.79</v>
+        <v>0.99</v>
       </c>
       <c r="B25" t="n">
-        <v>0.53</v>
+        <v>0.91</v>
       </c>
       <c r="C25" t="n">
-        <v>0.51</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="B26" t="n">
-        <v>0.66</v>
+        <v>0.99</v>
       </c>
       <c r="C26" t="n">
-        <v>0.75</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="B27" t="n">
-        <v>0.49</v>
+        <v>0.95</v>
       </c>
       <c r="C27" t="n">
-        <v>0.36</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="B28" t="n">
         <v>0.98</v>
       </c>
-      <c r="B28" t="n">
-        <v>0.85</v>
-      </c>
       <c r="C28" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="B29" t="n">
-        <v>0.66</v>
+        <v>0.83</v>
       </c>
       <c r="C29" t="n">
-        <v>0.46</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.85</v>
+        <v>0.98</v>
       </c>
       <c r="B30" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="B31" t="n">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
       <c r="C31" t="n">
-        <v>0.83</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="32">
@@ -788,51 +788,51 @@
         <v>0.99</v>
       </c>
       <c r="C32" t="n">
-        <v>0.98</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="n">
         <v>0.93</v>
       </c>
-      <c r="B33" t="n">
-        <v>0.77</v>
-      </c>
       <c r="C33" t="n">
-        <v>0.35</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="B34" t="n">
-        <v>0.58</v>
+        <v>0.75</v>
       </c>
       <c r="C34" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.51</v>
+        <v>0.86</v>
       </c>
       <c r="B35" t="n">
-        <v>0.34</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.85</v>
+        <v>0.99</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5</v>
+        <v>0.91</v>
       </c>
       <c r="C36" t="n">
-        <v>0.47</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +840,10 @@
         <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0.98</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="38">
@@ -851,65 +851,65 @@
         <v>0.99</v>
       </c>
       <c r="B38" t="n">
-        <v>0.47</v>
+        <v>0.93</v>
       </c>
       <c r="C38" t="n">
-        <v>0.28</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="B39" t="n">
         <v>0.98</v>
       </c>
-      <c r="B39" t="n">
-        <v>0.54</v>
-      </c>
       <c r="C39" t="n">
-        <v>0.26</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>0.57</v>
+        <v>0.99</v>
       </c>
       <c r="C40" t="n">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
       <c r="B41" t="n">
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
       <c r="C41" t="n">
-        <v>0.25</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="B42" t="n">
-        <v>0.74</v>
+        <v>0.98</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="B43" t="n">
-        <v>0.59</v>
+        <v>0.96</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="44">
@@ -917,10 +917,10 @@
         <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0.71</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="45">
@@ -928,54 +928,54 @@
         <v>1</v>
       </c>
       <c r="B45" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="C45" t="n">
-        <v>0.88</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.71</v>
+        <v>0.9</v>
       </c>
       <c r="B46" t="n">
-        <v>0.45</v>
+        <v>0.86</v>
       </c>
       <c r="C46" t="n">
-        <v>0.31</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.66</v>
+        <v>0.92</v>
       </c>
       <c r="B47" t="n">
-        <v>0.62</v>
+        <v>0.71</v>
       </c>
       <c r="C47" t="n">
-        <v>0.42</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="B48" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="C48" t="n">
-        <v>0.37</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="B49" t="n">
-        <v>0.73</v>
+        <v>0.93</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="50">
@@ -983,10 +983,10 @@
         <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>0.87</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="51">
@@ -994,54 +994,54 @@
         <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>0.73</v>
+        <v>0.99</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.61</v>
+        <v>0.91</v>
       </c>
       <c r="B52" t="n">
-        <v>0.43</v>
+        <v>0.83</v>
       </c>
       <c r="C52" t="n">
-        <v>0.19</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>0.37</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="B54" t="n">
-        <v>0.68</v>
+        <v>0.79</v>
       </c>
       <c r="C54" t="n">
-        <v>0.49</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="B55" t="n">
-        <v>0.38</v>
+        <v>0.77</v>
       </c>
       <c r="C55" t="n">
-        <v>0.31</v>
+        <v>0.37</v>
       </c>
     </row>
   </sheetData>
